--- a/data/trans_dic/P1412-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P1412-Edad-trans_dic.xlsx
@@ -703,17 +703,17 @@
       <c r="D6" s="5" t="inlineStr"/>
       <c r="E6" s="5" t="inlineStr"/>
       <c r="F6" s="5" t="n">
-        <v>0.01289091734036626</v>
+        <v>0.0118796727117519</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.01801041706956337</v>
+        <v>0.01584743606715199</v>
       </c>
       <c r="H6" s="5" t="inlineStr"/>
       <c r="I6" s="5" t="n">
-        <v>0.006294122837683335</v>
+        <v>0.005597583792887659</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.007589121885069051</v>
+        <v>0.007602377612167758</v>
       </c>
       <c r="K6" s="5" t="inlineStr"/>
     </row>
@@ -789,20 +789,20 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.007473205907126263</v>
+        <v>0.009998685684904017</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.01299664102732334</v>
+        <v>0.01339036785265255</v>
       </c>
       <c r="E9" s="5" t="inlineStr"/>
       <c r="F9" s="5" t="inlineStr"/>
       <c r="G9" s="5" t="inlineStr"/>
       <c r="H9" s="5" t="inlineStr"/>
       <c r="I9" s="5" t="n">
-        <v>0.004010557075094261</v>
+        <v>0.003990544024888181</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.00613838976485405</v>
+        <v>0.006460210695652707</v>
       </c>
       <c r="K9" s="5" t="inlineStr"/>
     </row>
@@ -886,25 +886,25 @@
       <c r="C12" s="5" t="inlineStr"/>
       <c r="D12" s="5" t="inlineStr"/>
       <c r="E12" s="5" t="n">
-        <v>0.009250413617995064</v>
+        <v>0.01098090259835714</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.007954113414912202</v>
+        <v>0.009495362878752078</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.007162331576820575</v>
+        <v>0.007084554469185622</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.00635111056417944</v>
+        <v>0.006318504571347957</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.004034364262747807</v>
+        <v>0.004049233875882239</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.003532719095939919</v>
+        <v>0.00291140999053227</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.005463703843436807</v>
+        <v>0.005783424802232613</v>
       </c>
     </row>
     <row r="13">
@@ -925,7 +925,7 @@
         <v>0</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.008238895055683431</v>
+        <v>0.00823889505568343</v>
       </c>
       <c r="F13" s="5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="K13" s="5" t="n">
-        <v>0.005411197522178299</v>
+        <v>0.0054111975221783</v>
       </c>
     </row>
     <row r="14">
@@ -958,19 +958,19 @@
       </c>
       <c r="D14" s="5" t="inlineStr"/>
       <c r="E14" s="5" t="n">
-        <v>0.002825534780495925</v>
+        <v>0.002782753637290349</v>
       </c>
       <c r="F14" s="5" t="inlineStr"/>
       <c r="G14" s="5" t="inlineStr"/>
       <c r="H14" s="5" t="n">
-        <v>0.0008337377479249523</v>
+        <v>0.0008370168437835542</v>
       </c>
       <c r="I14" s="5" t="n">
         <v>0</v>
       </c>
       <c r="J14" s="5" t="inlineStr"/>
       <c r="K14" s="5" t="n">
-        <v>0.002298357870698747</v>
+        <v>0.002444798557312866</v>
       </c>
     </row>
     <row r="15">
@@ -981,23 +981,23 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.01184895057602086</v>
+        <v>0.01178359136871761</v>
       </c>
       <c r="D15" s="5" t="inlineStr"/>
       <c r="E15" s="5" t="n">
-        <v>0.02145495603761296</v>
+        <v>0.01843192313554233</v>
       </c>
       <c r="F15" s="5" t="inlineStr"/>
       <c r="G15" s="5" t="inlineStr"/>
       <c r="H15" s="5" t="n">
-        <v>0.007341342174272786</v>
+        <v>0.007326699970126932</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.005882427953675581</v>
+        <v>0.006220095152605237</v>
       </c>
       <c r="J15" s="5" t="inlineStr"/>
       <c r="K15" s="5" t="n">
-        <v>0.01123609200758824</v>
+        <v>0.01213267434487751</v>
       </c>
     </row>
     <row r="16">
@@ -1018,7 +1018,7 @@
         <v>0.01821685120230425</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.007381981069614663</v>
+        <v>0.00738198106961466</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>0.009102521260335306</v>
@@ -1036,7 +1036,7 @@
         <v>0.01254392909734699</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>0.008740578173520849</v>
+        <v>0.008740578173520851</v>
       </c>
     </row>
     <row r="17">
@@ -1050,28 +1050,28 @@
         <v>0</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.008932279596168114</v>
+        <v>0.008828754919757523</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.002841803901908532</v>
+        <v>0.002884407249498668</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.002332502938892209</v>
+        <v>0.002320968505816587</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.002318165838955495</v>
+        <v>0.002333737576904909</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.004599901959500926</v>
+        <v>0.004609232032212561</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.002245944341786464</v>
+        <v>0.002254783696604641</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.006745774158447438</v>
+        <v>0.00687027335710706</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.005010059331991864</v>
+        <v>0.005152898665872227</v>
       </c>
     </row>
     <row r="18">
@@ -1082,31 +1082,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.01211323091073527</v>
+        <v>0.01193214242588853</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.03542675548750013</v>
+        <v>0.03340894900544175</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.01760286396226063</v>
+        <v>0.01828056040585474</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.02285787729686039</v>
+        <v>0.02082785919603205</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.01874665495949094</v>
+        <v>0.02209377450188443</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.01829894018542488</v>
+        <v>0.01773659102289571</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.0118190814351681</v>
+        <v>0.01327753516715496</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.02199591030177467</v>
+        <v>0.02220770860598952</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.01452992338754504</v>
+        <v>0.01433795185234346</v>
       </c>
     </row>
     <row r="19">
@@ -1127,7 +1127,7 @@
         <v>0.02346174231673348</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0.02334882958585134</v>
+        <v>0.02334882958585133</v>
       </c>
       <c r="F19" s="5" t="n">
         <v>0.008392911262014375</v>
@@ -1136,7 +1136,7 @@
         <v>0.01374616932203871</v>
       </c>
       <c r="H19" s="5" t="n">
-        <v>0.01136331165899335</v>
+        <v>0.01136331165899334</v>
       </c>
       <c r="I19" s="5" t="n">
         <v>0.01719195308774797</v>
@@ -1156,31 +1156,31 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.01281055778863664</v>
+        <v>0.0114016360928501</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.011330988346532</v>
+        <v>0.009197021872906419</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.01284814798154585</v>
+        <v>0.01288365941645722</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.002734885724337497</v>
+        <v>0.002759625834402097</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.005372388103518642</v>
+        <v>0.005339763168736272</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.005395411864780627</v>
+        <v>0.005618028211413589</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.008277747473588851</v>
+        <v>0.009030525791203127</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.009848270255031065</v>
+        <v>0.01022606256507783</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.01081187505034485</v>
+        <v>0.01100903216134432</v>
       </c>
     </row>
     <row r="21">
@@ -1191,31 +1191,31 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.05800900954421095</v>
+        <v>0.05467058389221206</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.04648001047255406</v>
+        <v>0.0468781023528651</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.03920102174801125</v>
+        <v>0.03725228379205034</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.0226475246058664</v>
+        <v>0.02242483777697087</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.03021842583577104</v>
+        <v>0.03101109651699446</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.02123926880351888</v>
+        <v>0.02122722128945953</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.03414706266450666</v>
+        <v>0.03173774987946137</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.03033803073889654</v>
+        <v>0.03094328953950604</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.02561974496925204</v>
+        <v>0.02633358234612875</v>
       </c>
     </row>
     <row r="22">
@@ -1265,31 +1265,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.0214843128543835</v>
+        <v>0.02162295472144336</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.01328193907949704</v>
+        <v>0.01283024144163775</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.02392080781546011</v>
+        <v>0.02298306523450539</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.0223810126750869</v>
+        <v>0.02263083290786233</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.006354182222515098</v>
+        <v>0.006321803917258344</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.008374214861134602</v>
+        <v>0.008868334218675545</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.02787211147401301</v>
+        <v>0.02566051352505383</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.01267662237960134</v>
+        <v>0.0126959446956469</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.01655346597252684</v>
+        <v>0.01599515400354796</v>
       </c>
     </row>
     <row r="24">
@@ -1300,31 +1300,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.07429120334979251</v>
+        <v>0.0717396216009419</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.05168224959419936</v>
+        <v>0.05122362095716165</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.06252266798683813</v>
+        <v>0.06111115999764501</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.06356549584712112</v>
+        <v>0.0675028346364601</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.04081332580245058</v>
+        <v>0.03757845009596648</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.02553071665511266</v>
+        <v>0.02467595896387077</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.06015560348478412</v>
+        <v>0.05979479062974385</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.03661272880119776</v>
+        <v>0.0366162445583328</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.03428580210985686</v>
+        <v>0.03324053022898828</v>
       </c>
     </row>
     <row r="25">
@@ -1363,7 +1363,7 @@
         <v>0.0065338430882265</v>
       </c>
       <c r="K25" s="5" t="n">
-        <v>0.007391094912388612</v>
+        <v>0.007391094912388611</v>
       </c>
     </row>
     <row r="26">
@@ -1374,31 +1374,31 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.004170432431788456</v>
+        <v>0.004293645873095654</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.00502843061707087</v>
+        <v>0.004948112413642336</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.006731233987816244</v>
+        <v>0.006851925036920759</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.004639602994534573</v>
+        <v>0.004564279721192182</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.003276703467563192</v>
+        <v>0.002936232799719968</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.003854078814197794</v>
+        <v>0.004043609608884344</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.005125836831640547</v>
+        <v>0.005001638946723603</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.004701321920392155</v>
+        <v>0.004553402413509961</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.006079877791644498</v>
+        <v>0.00589654893317487</v>
       </c>
     </row>
     <row r="27">
@@ -1409,31 +1409,31 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.00999646013862643</v>
+        <v>0.01023464188048124</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.01146527210404807</v>
+        <v>0.01122857982533052</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.01302156050044997</v>
+        <v>0.0128947921508043</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.01023603320841323</v>
+        <v>0.0102525380343186</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.00853567851896409</v>
+        <v>0.008478363341387284</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.007834197100607449</v>
+        <v>0.00760035676228193</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.009353159953865386</v>
+        <v>0.009189034475953262</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.008731547006761977</v>
+        <v>0.008641182615515011</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.009552261817480871</v>
+        <v>0.009506170074070844</v>
       </c>
     </row>
     <row r="28">
@@ -1693,17 +1693,17 @@
       <c r="D7" s="6" t="inlineStr"/>
       <c r="E7" s="6" t="inlineStr"/>
       <c r="F7" s="6" t="n">
-        <v>5546</v>
+        <v>5111</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>7128</v>
+        <v>6272</v>
       </c>
       <c r="H7" s="6" t="inlineStr"/>
       <c r="I7" s="6" t="n">
-        <v>5566</v>
+        <v>4950</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>6187</v>
+        <v>6198</v>
       </c>
       <c r="K7" s="6" t="inlineStr"/>
     </row>
@@ -1814,20 +1814,20 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>5135</v>
+        <v>6870</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>7674</v>
+        <v>7907</v>
       </c>
       <c r="E11" s="6" t="inlineStr"/>
       <c r="F11" s="6" t="inlineStr"/>
       <c r="G11" s="6" t="inlineStr"/>
       <c r="H11" s="6" t="inlineStr"/>
       <c r="I11" s="6" t="n">
-        <v>5199</v>
+        <v>5173</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>7084</v>
+        <v>7455</v>
       </c>
       <c r="K11" s="6" t="inlineStr"/>
     </row>
@@ -1946,25 +1946,25 @@
       <c r="C15" s="6" t="inlineStr"/>
       <c r="D15" s="6" t="inlineStr"/>
       <c r="E15" s="6" t="n">
-        <v>5718</v>
+        <v>6787</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>5644</v>
+        <v>6738</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>4737</v>
+        <v>4686</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>3943</v>
+        <v>3922</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>5614</v>
+        <v>5634</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>4700</v>
+        <v>3874</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>6769</v>
+        <v>7165</v>
       </c>
     </row>
     <row r="16">
@@ -2053,19 +2053,19 @@
       </c>
       <c r="D18" s="6" t="inlineStr"/>
       <c r="E18" s="6" t="n">
-        <v>1980</v>
+        <v>1950</v>
       </c>
       <c r="F18" s="6" t="inlineStr"/>
       <c r="G18" s="6" t="inlineStr"/>
       <c r="H18" s="6" t="n">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="I18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="J18" s="6" t="inlineStr"/>
       <c r="K18" s="6" t="n">
-        <v>3300</v>
+        <v>3510</v>
       </c>
     </row>
     <row r="19">
@@ -2076,23 +2076,23 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>7283</v>
+        <v>7242</v>
       </c>
       <c r="D19" s="6" t="inlineStr"/>
       <c r="E19" s="6" t="n">
-        <v>15032</v>
+        <v>12914</v>
       </c>
       <c r="F19" s="6" t="inlineStr"/>
       <c r="G19" s="6" t="inlineStr"/>
       <c r="H19" s="6" t="n">
-        <v>5396</v>
+        <v>5386</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>7229</v>
+        <v>7644</v>
       </c>
       <c r="J19" s="6" t="inlineStr"/>
       <c r="K19" s="6" t="n">
-        <v>16131</v>
+        <v>17419</v>
       </c>
     </row>
     <row r="20">
@@ -2180,28 +2180,28 @@
         <v>0</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>4269</v>
+        <v>4219</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>1729</v>
+        <v>1755</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>1044</v>
+        <v>1039</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>1152</v>
+        <v>1160</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>2791</v>
+        <v>2797</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>1970</v>
+        <v>1978</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>6576</v>
+        <v>6697</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>6088</v>
+        <v>6261</v>
       </c>
     </row>
     <row r="23">
@@ -2212,31 +2212,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>5202</v>
+        <v>5124</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>16931</v>
+        <v>15967</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>10709</v>
+        <v>11121</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>10236</v>
+        <v>9327</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>9314</v>
+        <v>10977</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>11103</v>
+        <v>10762</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>10368</v>
+        <v>11647</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>21441</v>
+        <v>21647</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>17656</v>
+        <v>17422</v>
       </c>
     </row>
     <row r="24">
@@ -2321,31 +2321,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>3969</v>
+        <v>3532</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>3788</v>
+        <v>3075</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>5219</v>
+        <v>5233</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>968</v>
+        <v>977</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>2029</v>
+        <v>2017</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>2369</v>
+        <v>2467</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>5495</v>
+        <v>5994</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>7013</v>
+        <v>7282</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>9140</v>
+        <v>9307</v>
       </c>
     </row>
     <row r="27">
@@ -2356,31 +2356,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>17970</v>
+        <v>16936</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>15540</v>
+        <v>15673</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>15924</v>
+        <v>15132</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>8017</v>
+        <v>7938</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>11415</v>
+        <v>11715</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>9328</v>
+        <v>9322</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>22666</v>
+        <v>21067</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>21603</v>
+        <v>22034</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>21658</v>
+        <v>22262</v>
       </c>
     </row>
     <row r="28">
@@ -2465,31 +2465,31 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>5368</v>
+        <v>5403</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>3413</v>
+        <v>3297</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>7420</v>
+        <v>7129</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>8679</v>
+        <v>8776</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>2543</v>
+        <v>2530</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>3887</v>
+        <v>4117</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>17773</v>
+        <v>16362</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>8331</v>
+        <v>8343</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>12819</v>
+        <v>12387</v>
       </c>
     </row>
     <row r="31">
@@ -2500,31 +2500,31 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>18562</v>
+        <v>17924</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>13282</v>
+        <v>13164</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>19394</v>
+        <v>18957</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>24650</v>
+        <v>26177</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>16332</v>
+        <v>15038</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>11852</v>
+        <v>11455</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>38358</v>
+        <v>38128</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>24061</v>
+        <v>24063</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>26551</v>
+        <v>25742</v>
       </c>
     </row>
     <row r="32">
@@ -2609,31 +2609,31 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>14291</v>
+        <v>14713</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>17068</v>
+        <v>16796</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>23749</v>
+        <v>24175</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>16484</v>
+        <v>16217</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>11614</v>
+        <v>10408</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>14374</v>
+        <v>15081</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>35777</v>
+        <v>34910</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>32622</v>
+        <v>31596</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>44126</v>
+        <v>42796</v>
       </c>
     </row>
     <row r="35">
@@ -2644,31 +2644,31 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>34256</v>
+        <v>35072</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>38917</v>
+        <v>38114</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>45942</v>
+        <v>45495</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>36368</v>
+        <v>36427</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>30255</v>
+        <v>30052</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>29218</v>
+        <v>28346</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>65283</v>
+        <v>64137</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>60587</v>
+        <v>59960</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>69328</v>
+        <v>68993</v>
       </c>
     </row>
     <row r="36">
